--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744984.602874046</v>
+        <v>1740679.479876977</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>150.145088205776</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>81.21477241771927</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02307145248652887</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>130.4949840230013</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.4694536323401</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>167.1656434067422</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760101</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680426006</v>
+        <v>23.94240680425918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524614</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937543</v>
+        <v>43.32085084937517</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>32.57136279043541</v>
+        <v>44.330606300748</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>74.42083052522507</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19.86486348319883</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589213</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166227</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>179.2369092138318</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>200.4727983501253</v>
       </c>
       <c r="W8" t="n">
-        <v>73.38346474638027</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>30.88242441694047</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>117.5703332470986</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>126.1414063487331</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>201.8589963344149</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758795</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>39.96816871822104</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>53.30076123485287</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671011751</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060473</v>
+        <v>28.23631843387999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>180.668762509175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.16281301712745</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>103.8784673763407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>34.56584948764148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365869</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>129.1078928223857</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>177.6965697803314</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>141.5888089825044</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>212.5602966632231</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>206.5509998577711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097406</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097406</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097406</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097406</v>
+        <v>211.3673327389937</v>
       </c>
       <c r="F2" t="n">
-        <v>293.4024563932559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4333,49 +4333,49 @@
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097406</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097406</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097406</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097406</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097406</v>
+        <v>400.7871177554784</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4415,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.0790441678186</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S3" t="n">
-        <v>598.7959687224148</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3761837059301</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3761837059301</v>
+        <v>336.2349471645391</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3761837059301</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9563986894453</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9563986894453</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4494,46 +4494,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1324.718369422181</v>
+        <v>977.484153009457</v>
       </c>
       <c r="C5" t="n">
-        <v>955.7558524817694</v>
+        <v>608.5216360690454</v>
       </c>
       <c r="D5" t="n">
-        <v>955.7558524817694</v>
+        <v>608.5216360690454</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817694</v>
+        <v>222.7333834708011</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921618</v>
+        <v>215.7878827215977</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062533</v>
+        <v>203.4122415760932</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062533</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017207</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674695</v>
+        <v>277.9807166746976</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030715</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709106</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582742</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079227</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332743</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837867</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540635</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540635</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="T5" t="n">
-        <v>1491.85923167707</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.85923167707</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.85923167707</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.85923167707</v>
+        <v>1350.949911270537</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.85923167707</v>
+        <v>977.484153009457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1491.85923167707</v>
+        <v>977.484153009457</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782.765301938328</v>
+        <v>695.6235206638844</v>
       </c>
       <c r="C6" t="n">
-        <v>608.312272657201</v>
+        <v>521.1704913827574</v>
       </c>
       <c r="D6" t="n">
-        <v>459.3778629959497</v>
+        <v>521.1704913827574</v>
       </c>
       <c r="E6" t="n">
-        <v>459.3778629959497</v>
+        <v>361.9330363773019</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>215.3984784041869</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367946</v>
+        <v>78.31649151814671</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814666</v>
+        <v>78.31649151814671</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787422</v>
+        <v>61.66788464787523</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806039</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189938</v>
+        <v>399.8722171189976</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522344</v>
+        <v>668.6238185223497</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352398</v>
+        <v>958.8971200352476</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228309</v>
+        <v>1202.220686228318</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639497</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906537</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1412.978294451551</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>1412.978294451551</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="T6" t="n">
-        <v>1412.978294451551</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="U6" t="n">
-        <v>1412.978294451551</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="V6" t="n">
-        <v>1412.978294451551</v>
+        <v>1325.927714617687</v>
       </c>
       <c r="W6" t="n">
-        <v>1158.74093772335</v>
+        <v>1071.690357889485</v>
       </c>
       <c r="X6" t="n">
-        <v>1158.74093772335</v>
+        <v>863.8388576839525</v>
       </c>
       <c r="Y6" t="n">
-        <v>950.980638958396</v>
+        <v>863.8388576839525</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675734</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675734</v>
+        <v>202.8635834179918</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675734</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574577</v>
+        <v>64.24066662574681</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584094</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834794</v>
+        <v>206.9680378347969</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195324</v>
+        <v>287.8841338195363</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934665</v>
+        <v>342.3101561934713</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857944</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040852</v>
+        <v>369.8190495858</v>
       </c>
       <c r="R7" t="n">
-        <v>215.6054393610319</v>
+        <v>369.8190495858</v>
       </c>
       <c r="S7" t="n">
-        <v>215.6054393610319</v>
+        <v>369.8190495858</v>
       </c>
       <c r="T7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="U7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675734</v>
+        <v>369.8190495858</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.127537179187</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.127537179187</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.127537179187</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>55.35983779428176</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J8" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771189</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305298</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.718007305298</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="W8" t="n">
-        <v>1708.593295440267</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="X8" t="n">
-        <v>1335.127537179187</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1335.127537179187</v>
+        <v>1965.962050793417</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>514.8569251016124</v>
+        <v>809.4046422439259</v>
       </c>
       <c r="C9" t="n">
-        <v>483.6625570036928</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D9" t="n">
-        <v>334.7281473424415</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>175.490692336986</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948361</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081625</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498821</v>
+        <v>1647.469134962682</v>
       </c>
       <c r="W9" t="n">
-        <v>683.0722621216805</v>
+        <v>1393.231778234481</v>
       </c>
       <c r="X9" t="n">
-        <v>683.0722621216805</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="Y9" t="n">
-        <v>683.0722621216805</v>
+        <v>977.6199792639939</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
         <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>189.1224447077621</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>61.70688273934482</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>61.70688273934482</v>
+        <v>316.3913709452316</v>
       </c>
       <c r="V10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="W10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934478</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>696.7084350851717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>527.7722521572648</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>377.655612744929</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773693</v>
+        <v>229.7425191625359</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>229.7425191625359</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>229.7425191625359</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855609</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199807</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.55619999392</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956959</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058942</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>878.3568999154114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5761,22 +5761,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>264.0500279773697</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>264.0500279773697</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,7 +5928,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075816</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.601903741513</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6229,13 +6229,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>2939.372134388645</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2939.372134388645</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,13 +6451,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>198.7444078725585</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4415.150075057287</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4126.074848401485</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3871.390360195598</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3581.973190158637</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3353.98363926062</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.19106011709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192662</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836061</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836061</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>584.5295404712704</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>584.5295404712704</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>437.63959297336</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998286</v>
+        <v>270.4434936882399</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>128.731662530438</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138459</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138459</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001559</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661316</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661316</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376196</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998111</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4511.341667771995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4222.266441116193</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3967.581952910306</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3678.164782873346</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.175231975329</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.382652831799</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7663,22 +7663,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>106.4657939283481</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>86.99395161137099</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516641</v>
+        <v>137.2878198583888</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>84.77391660561906</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>45.04089287986218</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>83.27114962944172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>36.41624546988312</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>46.69998683092404</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>39.70888054695683</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4.845153664064782</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>10.85445046951719</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583916</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253075</v>
+        <v>270592.362025312</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231986</v>
+        <v>115410.0540231941</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588185</v>
+        <v>62913.63765881968</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197626</v>
+        <v>27875.25362197514</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263475</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936784</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372676.0731081975</v>
+        <v>-372676.0731081974</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873688095</v>
+        <v>570.674987364866</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.0686904231</v>
+        <v>179391.0686904273</v>
       </c>
       <c r="E6" t="n">
-        <v>-173178.4226142969</v>
+        <v>-173525.8018686545</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599673</v>
+        <v>427917.4057056106</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056106</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599672</v>
+        <v>427917.4057056102</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599674</v>
+        <v>427917.4057056103</v>
       </c>
       <c r="J6" t="n">
-        <v>379199.8402314226</v>
+        <v>378852.4609770657</v>
       </c>
       <c r="K6" t="n">
-        <v>365351.1473011486</v>
+        <v>365003.7680467909</v>
       </c>
       <c r="L6" t="n">
-        <v>400389.5313379907</v>
+        <v>400042.1520836351</v>
       </c>
       <c r="M6" t="n">
-        <v>271118.4044083696</v>
+        <v>270771.0251540121</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599672</v>
+        <v>427917.4057056106</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599672</v>
+        <v>427917.4057056102</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599669</v>
+        <v>427917.4057056101</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950577</v>
+        <v>758.8996292950612</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594667</v>
+        <v>431.9757039594706</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821531</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262721</v>
+        <v>94.81103524262357</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039891</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931468</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666976</v>
+        <v>110.1392527666932</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27038,16 +27038,16 @@
         <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931471</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666976</v>
+        <v>110.1392527666932</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931468</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666976</v>
+        <v>110.1392527666932</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>262.952745024282</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871041</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>305.0231662383343</v>
       </c>
     </row>
     <row r="3">
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.40982417597667</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681313</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>102.3056031264239</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459968</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482799</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425669</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217.2643880311404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714737</v>
+        <v>141.0646126647313</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372559</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.75924351031306</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843608</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974428</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>158.3797566242002</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5690991633703</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599132</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304098</v>
+        <v>30.24193919304054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130604</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>42.86142077561888</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>127.2794601200096</v>
       </c>
       <c r="W8" t="n">
-        <v>275.8575039710328</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>141.8260745713753</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>115.2302539023266</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>95.22641238556947</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>84.37606148130183</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29969,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-3.287668775498232e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085657</v>
+        <v>3.050852781085671</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429349</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428049</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.937316228669</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520249</v>
+        <v>388.0799144520267</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511752</v>
+        <v>481.4474502511774</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968073</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610669</v>
+        <v>544.3712888610694</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191464</v>
+        <v>514.0343715191487</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860941</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263464</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098721</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898947</v>
+        <v>69.5213077489898</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920247</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868525</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030879</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403507</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062457</v>
+        <v>56.20152915062483</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475928</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316617</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721872</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658064</v>
+        <v>413.6002979658083</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468644</v>
+        <v>424.5470671468664</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374433</v>
+        <v>388.3776244374451</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872474</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547487</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632155</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947705</v>
+        <v>30.32018801947719</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378847</v>
+        <v>6.579516597378878</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757158</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236989</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377978</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673451</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635513</v>
+        <v>96.75348224635557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260792</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516252</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399127</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528478</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275338</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514991</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235537</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054679</v>
+        <v>61.53307486054707</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391188</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883077</v>
+        <v>5.847259438830798</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656313</v>
+        <v>0.07464586517656348</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
         <v>132.312282993323</v>
@@ -31533,13 +31533,13 @@
         <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
         <v>493.5262741662302</v>
@@ -31551,10 +31551,10 @@
         <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
         <v>0.2745602137206622</v>
@@ -31603,16 +31603,16 @@
         <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
         <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
         <v>477.5866858152847</v>
@@ -31621,7 +31621,7 @@
         <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349508</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595398</v>
@@ -31706,16 +31706,16 @@
         <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>246.2467565146281</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,37 +32548,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113952</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198269</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070444</v>
+        <v>167.9900634070462</v>
       </c>
       <c r="L5" t="n">
-        <v>245.681035281188</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695346</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264476</v>
+        <v>314.9582252644785</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974596</v>
+        <v>283.936160097462</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308246</v>
+        <v>207.4834477308266</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890145</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092614</v>
+        <v>27.38366498092685</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573027</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392313</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437881</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635311</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929989</v>
+        <v>245.7813799930007</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729171</v>
+        <v>177.7328761729186</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872719</v>
+        <v>68.38629016872815</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554387</v>
+        <v>29.98243465554461</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501375</v>
+        <v>68.57507023501469</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230767</v>
+        <v>75.59399159230867</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761457</v>
+        <v>81.73343028761556</v>
       </c>
       <c r="O7" t="n">
-        <v>54.975780175691</v>
+        <v>54.97578017569188</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235145</v>
+        <v>27.78676100235222</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
         <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
         <v>148.3119886183904</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402692</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>405.044904796216</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
